--- a/calc.xlsx
+++ b/calc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0174896\PycharmProjects\kadai-I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E6C6578-452C-4A20-8FD3-AA28BC0DB47E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314A487C-57B4-4165-BD49-8CFE5E65F518}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4000" xr2:uid="{4C1715C3-FA30-45FA-8C80-9B4FB779C42A}"/>
   </bookViews>
@@ -514,280 +514,280 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CC9911-65A2-4AA9-9287-5207F7F8569E}">
-  <dimension ref="B2:F17"/>
+  <dimension ref="B4:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="1" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="2:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="2:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="4">
+    <row r="6" spans="2:6" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C6" s="5">
         <v>28</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D6" s="5">
         <v>29</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E6" s="5">
         <v>27</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F6" s="5">
         <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>32</v>
-      </c>
-      <c r="D5" s="2">
-        <v>31</v>
-      </c>
-      <c r="E5" s="2">
-        <v>30</v>
-      </c>
-      <c r="F5" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="3">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2">
-        <v>31</v>
-      </c>
-      <c r="D6" s="2">
-        <v>30</v>
-      </c>
-      <c r="E6" s="2">
-        <v>32</v>
-      </c>
-      <c r="F6" s="2">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" s="2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2">
         <v>27</v>
-      </c>
-      <c r="E8" s="2">
-        <v>27</v>
-      </c>
-      <c r="F8" s="2">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2">
+        <v>28</v>
+      </c>
+      <c r="F11" s="2">
         <v>29</v>
-      </c>
-      <c r="D11" s="2">
-        <v>30</v>
-      </c>
-      <c r="E11" s="2">
-        <v>25</v>
-      </c>
-      <c r="F11" s="2">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2">
         <v>30</v>
       </c>
       <c r="D12" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="3">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2">
+        <v>30</v>
+      </c>
+      <c r="E13" s="2">
+        <v>25</v>
+      </c>
+      <c r="F13" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="3">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2">
+        <v>31</v>
+      </c>
+      <c r="E14" s="2">
+        <v>30</v>
+      </c>
+      <c r="F14" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="3">
         <v>10</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C15" s="2">
         <v>31</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D15" s="2">
         <v>31</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E15" s="2">
         <v>29</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F15" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" t="s">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="C14">
-        <f>AVERAGE(C4:C13)</f>
+      <c r="C16">
+        <f>AVERAGE(C6:C15)</f>
         <v>29.5</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" t="s">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="C15">
-        <f>SQRT((($C4-C4)^2+($C5-C5)^2+($C6-C6)^2+($C7-C7)^2+($C8-C8)^2+($C9-C9)^2+($C10-C10)^2+($C11-C11)^2+($C12-C12)^2+($C13-C13)^2)/10)</f>
+      <c r="C17">
+        <f>SQRT((($C6-C6)^2+($C7-C7)^2+($C8-C8)^2+($C9-C9)^2+($C10-C10)^2+($C11-C11)^2+($C12-C12)^2+($C13-C13)^2+($C14-C14)^2+($C15-C15)^2)/10)</f>
         <v>0</v>
       </c>
-      <c r="D15">
-        <f t="shared" ref="D15:F15" si="0">SQRT((($C4-D4)^2+($C5-D5)^2+($C6-D6)^2+($C7-D7)^2+($C8-D8)^2+($C9-D9)^2+($C10-D10)^2+($C11-D11)^2+($C12-D12)^2+($C13-D13)^2)/10)</f>
+      <c r="D17">
+        <f t="shared" ref="D17:F17" si="0">SQRT((($C6-D6)^2+($C7-D7)^2+($C8-D8)^2+($C9-D9)^2+($C10-D10)^2+($C11-D11)^2+($C12-D12)^2+($C13-D13)^2+($C14-D14)^2+($C15-D15)^2)/10)</f>
         <v>0.89442719099991586</v>
       </c>
-      <c r="E15">
+      <c r="E17">
         <f t="shared" si="0"/>
         <v>2.2135943621178655</v>
       </c>
-      <c r="F15">
+      <c r="F17">
         <f t="shared" si="0"/>
         <v>3.4205262752974139</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" t="s">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="C16">
-        <f>(ABS($C4-C4)+ABS($C5-C5)+ABS($C6-C6)+ABS($C7-C7)+ABS($C8-C8)+ABS($C9-C9)+ABS($C10-C10)+ABS($C11-C11)+ABS($C12-C12)+ABS($C13-C13))/10</f>
+      <c r="C18">
+        <f>(ABS($C6-C6)+ABS($C7-C7)+ABS($C8-C8)+ABS($C9-C9)+ABS($C10-C10)+ABS($C11-C11)+ABS($C12-C12)+ABS($C13-C13)+ABS($C14-C14)+ABS($C15-C15))/10</f>
         <v>0</v>
       </c>
-      <c r="D16">
-        <f t="shared" ref="D16:F16" si="1">(ABS($C4-D4)+ABS($C5-D5)+ABS($C6-D6)+ABS($C7-D7)+ABS($C8-D8)+ABS($C9-D9)+ABS($C10-D10)+ABS($C11-D11)+ABS($C12-D12)+ABS($C13-D13))/10</f>
+      <c r="D18">
+        <f t="shared" ref="D18:F18" si="1">(ABS($C6-D6)+ABS($C7-D7)+ABS($C8-D8)+ABS($C9-D9)+ABS($C10-D10)+ABS($C11-D11)+ABS($C12-D12)+ABS($C13-D13)+ABS($C14-D14)+ABS($C15-D15))/10</f>
         <v>0.8</v>
       </c>
-      <c r="E16">
+      <c r="E18">
         <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
-      <c r="F16">
+      <c r="F18">
         <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" t="s">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" t="s">
         <v>7</v>
       </c>
-      <c r="C17">
-        <f>1-(($C4-C4)^2+($C5-C5)^2+($C6-C6)^2+($C7-C7)^2+($C8-C8)^2+($C9-C9)^2+($C10-C10)^2+($C11-C11)^2+($C12-C12)^2+($C13-C13)^2)/(($C4-C14)^2+($C5-C14)^2+($C6-C14)^2+($C7-C14)^2+($C8-C14)^2+($C9-C14)^2+($C10-C14)^2+($C11-C14)^2+($C12-C14)^2+($C13-C14)^2)</f>
+      <c r="C19">
+        <f>1-(($C6-C6)^2+($C7-C7)^2+($C8-C8)^2+($C9-C9)^2+($C10-C10)^2+($C11-C11)^2+($C12-C12)^2+($C13-C13)^2+($C14-C14)^2+($C15-C15)^2)/(($C6-C16)^2+($C7-C16)^2+($C8-C16)^2+($C9-C16)^2+($C10-C16)^2+($C11-C16)^2+($C12-C16)^2+($C13-C16)^2+($C14-C16)^2+($C15-C16)^2)</f>
         <v>1</v>
       </c>
-      <c r="D17">
-        <f t="shared" ref="D17:F17" si="2">1-(($C4-D4)^2+($C5-D5)^2+($C6-D6)^2+($C7-D7)^2+($C8-D8)^2+($C9-D9)^2+($C10-D10)^2+($C11-D11)^2+($C12-D12)^2+($C13-D13)^2)/(($C4-D14)^2+($C5-D14)^2+($C6-D14)^2+($C7-D14)^2+($C8-D14)^2+($C9-D14)^2+($C10-D14)^2+($C11-D14)^2+($C12-D14)^2+($C13-D14)^2)</f>
+      <c r="D19">
+        <f t="shared" ref="D19:F19" si="2">1-(($C6-D6)^2+($C7-D7)^2+($C8-D8)^2+($C9-D9)^2+($C10-D10)^2+($C11-D11)^2+($C12-D12)^2+($C13-D13)^2+($C14-D14)^2+($C15-D15)^2)/(($C6-D16)^2+($C7-D16)^2+($C8-D16)^2+($C9-D16)^2+($C10-D16)^2+($C11-D16)^2+($C12-D16)^2+($C13-D16)^2+($C14-D16)^2+($C15-D16)^2)</f>
         <v>0.99908686223033905</v>
       </c>
-      <c r="E17">
+      <c r="E19">
         <f t="shared" si="2"/>
         <v>0.9944070311608264</v>
       </c>
-      <c r="F17">
+      <c r="F19">
         <f t="shared" si="2"/>
         <v>0.98664536011870796</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
